--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2564746666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.7694239999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.1818007399394835</v>
+      </c>
+      <c r="J2">
+        <v>0.1818007399394835</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>5.271646666666667</v>
-      </c>
-      <c r="H2">
-        <v>15.81494</v>
-      </c>
-      <c r="I2">
-        <v>0.8203725392491262</v>
-      </c>
-      <c r="J2">
-        <v>0.8203725392491262</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.05680966666667</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N2">
-        <v>213.170429</v>
+        <v>0.017021</v>
       </c>
       <c r="O2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q2">
-        <v>374.5863938232512</v>
+        <v>0.001455151767111111</v>
       </c>
       <c r="R2">
-        <v>3371.27754440926</v>
+        <v>0.013096365904</v>
       </c>
       <c r="S2">
-        <v>0.8198424099147941</v>
+        <v>0.02244927412388149</v>
       </c>
       <c r="T2">
-        <v>0.8198424099147941</v>
+        <v>0.0224492741238815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005673666666666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N3">
-        <v>0.017021</v>
+        <v>0.12082</v>
       </c>
       <c r="O3">
-        <v>7.979531220238203E-05</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P3">
-        <v>7.979531220238202E-05</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q3">
-        <v>0.02990956597111112</v>
+        <v>0.01032908974222222</v>
       </c>
       <c r="R3">
-        <v>0.2691860937400001</v>
+        <v>0.09296180767999998</v>
       </c>
       <c r="S3">
-        <v>6.546188289164494E-05</v>
+        <v>0.159351465815602</v>
       </c>
       <c r="T3">
-        <v>6.546188289164493E-05</v>
+        <v>0.1593514658156021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>1.085481666666667</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>3.256445</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04027333333333333</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N4">
-        <v>0.12082</v>
+        <v>0.017021</v>
       </c>
       <c r="O4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q4">
-        <v>0.2123067834222223</v>
+        <v>0.006158661149444445</v>
       </c>
       <c r="R4">
-        <v>1.9107610508</v>
+        <v>0.055427950345</v>
       </c>
       <c r="S4">
-        <v>0.0004646674514404877</v>
+        <v>0.09501240729993253</v>
       </c>
       <c r="T4">
-        <v>0.0004646674514404877</v>
+        <v>0.09501240729993254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>71.05680966666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N5">
-        <v>213.170429</v>
+        <v>0.12082</v>
       </c>
       <c r="O5">
-        <v>0.9993537943934382</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P5">
-        <v>0.9993537943934382</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q5">
-        <v>77.13086418498945</v>
+        <v>0.04371596498888889</v>
       </c>
       <c r="R5">
-        <v>694.177777664905</v>
+        <v>0.3934436849</v>
       </c>
       <c r="S5">
-        <v>0.1688132687544171</v>
+        <v>0.6744256536030696</v>
       </c>
       <c r="T5">
-        <v>0.1688132687544171</v>
+        <v>0.6744256536030697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.085481666666667</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H6">
-        <v>3.256445</v>
+        <v>0.206369</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.017021</v>
       </c>
       <c r="O6">
-        <v>7.979531220238203E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P6">
-        <v>7.979531220238202E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q6">
-        <v>0.006158661149444445</v>
+        <v>0.0003902896387777778</v>
       </c>
       <c r="R6">
-        <v>0.055427950345</v>
+        <v>0.003512606749</v>
       </c>
       <c r="S6">
-        <v>1.347921783029734E-05</v>
+        <v>0.006021172008764089</v>
       </c>
       <c r="T6">
-        <v>1.347921783029734E-05</v>
+        <v>0.00602117200876409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.085481666666667</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H7">
-        <v>3.256445</v>
+        <v>0.206369</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.12082</v>
       </c>
       <c r="O7">
-        <v>0.0005664102943594264</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P7">
-        <v>0.0005664102943594264</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q7">
-        <v>0.04371596498888889</v>
+        <v>0.002770389175555556</v>
       </c>
       <c r="R7">
-        <v>0.3934436849</v>
+        <v>0.02493350258</v>
       </c>
       <c r="S7">
-        <v>9.56794018128503E-05</v>
+        <v>0.04274002714875021</v>
       </c>
       <c r="T7">
-        <v>9.567940181285029E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.06878966666666665</v>
-      </c>
-      <c r="H8">
-        <v>0.206369</v>
-      </c>
-      <c r="I8">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="J8">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>71.05680966666667</v>
-      </c>
-      <c r="N8">
-        <v>213.170429</v>
-      </c>
-      <c r="O8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="P8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="Q8">
-        <v>4.887974251366777</v>
-      </c>
-      <c r="R8">
-        <v>43.99176826230099</v>
-      </c>
-      <c r="S8">
-        <v>0.01069811572422697</v>
-      </c>
-      <c r="T8">
-        <v>0.01069811572422697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.06878966666666665</v>
-      </c>
-      <c r="H9">
-        <v>0.206369</v>
-      </c>
-      <c r="I9">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="J9">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.005673666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.017021</v>
-      </c>
-      <c r="O9">
-        <v>7.979531220238203E-05</v>
-      </c>
-      <c r="P9">
-        <v>7.979531220238202E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.0003902896387777777</v>
-      </c>
-      <c r="R9">
-        <v>0.003512606749</v>
-      </c>
-      <c r="S9">
-        <v>8.542114804397532E-07</v>
-      </c>
-      <c r="T9">
-        <v>8.542114804397531E-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.06878966666666665</v>
-      </c>
-      <c r="H10">
-        <v>0.206369</v>
-      </c>
-      <c r="I10">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="J10">
-        <v>0.0107050333768135</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04027333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.12082</v>
-      </c>
-      <c r="O10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="P10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="Q10">
-        <v>0.002770389175555555</v>
-      </c>
-      <c r="R10">
-        <v>0.02493350258</v>
-      </c>
-      <c r="S10">
-        <v>6.063441106088419E-06</v>
-      </c>
-      <c r="T10">
-        <v>6.063441106088419E-06</v>
+        <v>0.04274002714875021</v>
       </c>
     </row>
   </sheetData>
